--- a/hw6/Assignment6_Data_from_ERD.xlsx
+++ b/hw6/Assignment6_Data_from_ERD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13365" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment6_Data_COMP430" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6677" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="621">
   <si>
     <t>RICE</t>
   </si>
@@ -1864,9 +1864,6 @@
     <t>Matias</t>
   </si>
   <si>
-    <t>U693+C60</t>
-  </si>
-  <si>
     <t>Sebastian</t>
   </si>
   <si>
@@ -1874,6 +1871,21 @@
   </si>
   <si>
     <t>Laura</t>
+  </si>
+  <si>
+    <t>2007-05-06</t>
+  </si>
+  <si>
+    <t>2007-12-10</t>
+  </si>
+  <si>
+    <t>2007-01-07</t>
+  </si>
+  <si>
+    <t>2006-03-11</t>
+  </si>
+  <si>
+    <t>2006-05-12</t>
   </si>
 </sst>
 </file>
@@ -1912,11 +1924,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2285,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1247"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,8 +2422,8 @@
       <c r="A12" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="2">
-        <v>39208</v>
+      <c r="B12" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2423,8 +2436,8 @@
       <c r="A13" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="2">
-        <v>39426</v>
+      <c r="B13" s="4" t="s">
+        <v>617</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2437,8 +2450,8 @@
       <c r="A14" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="2">
-        <v>39089</v>
+      <c r="B14" s="4" t="s">
+        <v>618</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -2451,8 +2464,8 @@
       <c r="A15" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="2">
-        <v>38787</v>
+      <c r="B15" s="4" t="s">
+        <v>619</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -2465,8 +2478,8 @@
       <c r="A16" t="s">
         <v>237</v>
       </c>
-      <c r="B16" s="2">
-        <v>38849</v>
+      <c r="B16" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -3107,7 +3120,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,7 +3148,7 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,7 +3204,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -22402,10 +22415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F919"/>
+  <dimension ref="A1:G919"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22417,12 +22430,12 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -22433,7 +22446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -22444,7 +22457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -22455,7 +22468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -22466,7 +22479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -22477,7 +22490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -22488,7 +22501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -22499,7 +22512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -22510,7 +22523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -22521,17 +22534,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="2">
-        <v>39208</v>
+      <c r="B12" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -22539,13 +22552,14 @@
       <c r="D12" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="2">
-        <v>39426</v>
+      <c r="B13" s="4" t="s">
+        <v>617</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -22553,13 +22567,14 @@
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="2">
-        <v>39089</v>
+      <c r="B14" s="4" t="s">
+        <v>618</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -22567,13 +22582,14 @@
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="2">
-        <v>38787</v>
+      <c r="B15" s="4" t="s">
+        <v>619</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -22581,13 +22597,14 @@
       <c r="D15" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>237</v>
       </c>
-      <c r="B16" s="2">
-        <v>38849</v>
+      <c r="B16" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -22595,6 +22612,7 @@
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -22889,7 +22907,7 @@
         <v>213</v>
       </c>
       <c r="C38" t="s">
-        <v>613</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>254</v>
@@ -23228,7 +23246,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -23256,7 +23274,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23312,7 +23330,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
